--- a/data/Player Statistics.xlsx
+++ b/data/Player Statistics.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Statistics Complex"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_C1555A3F_9469_4384_B9AB_8B3304C3CAF8_.wvu.FilterData" localSheetId="0">'Statistics Complex'!$A$2:$T$96</definedName>
+    <definedName name="Z_C1555A3F_9469_4384_B9AB_8B3304C3CAF8_.wvu.FilterData" localSheetId="0">='Statistics Complex'!$A$2:$T$108</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="156">
   <si>
     <t>Character</t>
   </si>
@@ -139,7 +139,7 @@
     <t>High</t>
   </si>
   <si>
-    <t>Black Mii Male</t>
+    <t>John K</t>
   </si>
   <si>
     <t>Black Shy Guy</t>
@@ -166,7 +166,7 @@
     <t>Keeper Catch</t>
   </si>
   <si>
-    <t>Blue Mii Male</t>
+    <t>Minion</t>
   </si>
   <si>
     <t>Noki</t>
@@ -220,7 +220,7 @@
     <t>Brown Kritter</t>
   </si>
   <si>
-    <t>Brown Mii Male</t>
+    <t>Ice Cube</t>
   </si>
   <si>
     <t>Daisy</t>
@@ -259,7 +259,7 @@
     <t>Magical Catch</t>
   </si>
   <si>
-    <t>Green Mii Male</t>
+    <t>Unc</t>
   </si>
   <si>
     <t>Green Noki</t>
@@ -289,13 +289,13 @@
     <t>Kritter</t>
   </si>
   <si>
-    <t>Light Blue Mii Male</t>
+    <t>Frozone</t>
   </si>
   <si>
     <t>Light Blue Yoshi</t>
   </si>
   <si>
-    <t>Light Green Mii Male</t>
+    <t>John</t>
   </si>
   <si>
     <t>Luigi</t>
@@ -313,7 +313,7 @@
     <t>Burrow</t>
   </si>
   <si>
-    <t>Orange Mii Male</t>
+    <t>KevinG</t>
   </si>
   <si>
     <t>Paragoomba</t>
@@ -328,13 +328,13 @@
     <t>Piranha Catch</t>
   </si>
   <si>
-    <t>Pink Mii Male</t>
+    <t>Dwayne Wade</t>
   </si>
   <si>
     <t>Pink Yoshi</t>
   </si>
   <si>
-    <t>Purple Mii Male</t>
+    <t>John 2.0</t>
   </si>
   <si>
     <t>Purple Toad</t>
@@ -352,7 +352,7 @@
     <t>Red Magikoopa</t>
   </si>
   <si>
-    <t>Red Mii Male</t>
+    <t>Incredible</t>
   </si>
   <si>
     <t>Red Noki</t>
@@ -385,7 +385,7 @@
     <t>Wario</t>
   </si>
   <si>
-    <t>White Mii Male</t>
+    <t>Semenlad</t>
   </si>
   <si>
     <t>Wiggler</t>
@@ -397,7 +397,7 @@
     <t>Yellow Magikoopa</t>
   </si>
   <si>
-    <t>Yellow Mii Male</t>
+    <t>Borat</t>
   </si>
   <si>
     <t>Yellow Pianta</t>
@@ -415,40 +415,76 @@
     <t>Yoshi</t>
   </si>
   <si>
-    <t>Red Mii Female</t>
-  </si>
-  <si>
-    <t>Orange Mii Female</t>
-  </si>
-  <si>
-    <t>Yellow Mii Female</t>
-  </si>
-  <si>
-    <t>Light Green Mii Female</t>
-  </si>
-  <si>
-    <t>Green Mii Female</t>
-  </si>
-  <si>
-    <t>Blue Mii Female</t>
-  </si>
-  <si>
-    <t>Light Blue Mii Female</t>
-  </si>
-  <si>
-    <t>Pink Mii Female</t>
-  </si>
-  <si>
-    <t>Purple Mii Female</t>
-  </si>
-  <si>
-    <t>Brown Mii Female</t>
-  </si>
-  <si>
-    <t>White Mii Female</t>
-  </si>
-  <si>
-    <t>Black Mii Female</t>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Whoppie</t>
+  </si>
+  <si>
+    <t>Mikasa</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Lara Croft</t>
+  </si>
+  <si>
+    <t>Helly R</t>
+  </si>
+  <si>
+    <t>Evie</t>
+  </si>
+  <si>
+    <t>Miss Hot</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Miss Casey</t>
+  </si>
+  <si>
+    <t>Caillou</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Mrs.Claus</t>
+  </si>
+  <si>
+    <t>Lizzy</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Lilo</t>
+  </si>
+  <si>
+    <t>MJ heehee</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Capt Jack</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>Black Widow</t>
   </si>
 </sst>
 </file>
@@ -551,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -593,7 +629,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -903,7 +945,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -911,26 +953,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -995,7 +1037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -1181,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -1305,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -1491,7 +1533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -1615,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -1739,7 +1781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +1843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1925,7 +1967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
@@ -1987,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
@@ -2049,7 +2091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
@@ -6780,11 +6822,11 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="9" t="s">
         <v>24</v>
       </c>
@@ -6834,6 +6876,702 @@
         <v>50</v>
       </c>
       <c r="T96" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="10">
+        <v>2</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="10">
+        <v>65</v>
+      </c>
+      <c r="J97" s="10">
+        <v>45</v>
+      </c>
+      <c r="K97" s="10">
+        <v>45</v>
+      </c>
+      <c r="L97" s="10">
+        <v>65</v>
+      </c>
+      <c r="M97" s="10">
+        <v>40</v>
+      </c>
+      <c r="N97" s="10">
+        <v>60</v>
+      </c>
+      <c r="O97" s="10">
+        <v>60</v>
+      </c>
+      <c r="P97" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q97" s="10">
+        <v>130</v>
+      </c>
+      <c r="R97" s="10">
+        <v>142</v>
+      </c>
+      <c r="S97" s="10">
+        <v>50</v>
+      </c>
+      <c r="T97" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="10">
+        <v>2</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="10">
+        <v>65</v>
+      </c>
+      <c r="J98" s="10">
+        <v>45</v>
+      </c>
+      <c r="K98" s="10">
+        <v>45</v>
+      </c>
+      <c r="L98" s="10">
+        <v>65</v>
+      </c>
+      <c r="M98" s="10">
+        <v>40</v>
+      </c>
+      <c r="N98" s="10">
+        <v>60</v>
+      </c>
+      <c r="O98" s="10">
+        <v>60</v>
+      </c>
+      <c r="P98" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q98" s="10">
+        <v>130</v>
+      </c>
+      <c r="R98" s="10">
+        <v>142</v>
+      </c>
+      <c r="S98" s="10">
+        <v>50</v>
+      </c>
+      <c r="T98" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="10">
+        <v>2</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="10">
+        <v>65</v>
+      </c>
+      <c r="J99" s="10">
+        <v>45</v>
+      </c>
+      <c r="K99" s="10">
+        <v>45</v>
+      </c>
+      <c r="L99" s="10">
+        <v>65</v>
+      </c>
+      <c r="M99" s="10">
+        <v>40</v>
+      </c>
+      <c r="N99" s="10">
+        <v>60</v>
+      </c>
+      <c r="O99" s="10">
+        <v>60</v>
+      </c>
+      <c r="P99" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q99" s="10">
+        <v>130</v>
+      </c>
+      <c r="R99" s="10">
+        <v>142</v>
+      </c>
+      <c r="S99" s="10">
+        <v>50</v>
+      </c>
+      <c r="T99" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="10">
+        <v>2</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="10">
+        <v>65</v>
+      </c>
+      <c r="J100" s="10">
+        <v>45</v>
+      </c>
+      <c r="K100" s="10">
+        <v>45</v>
+      </c>
+      <c r="L100" s="10">
+        <v>65</v>
+      </c>
+      <c r="M100" s="10">
+        <v>40</v>
+      </c>
+      <c r="N100" s="10">
+        <v>60</v>
+      </c>
+      <c r="O100" s="10">
+        <v>60</v>
+      </c>
+      <c r="P100" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q100" s="10">
+        <v>130</v>
+      </c>
+      <c r="R100" s="10">
+        <v>142</v>
+      </c>
+      <c r="S100" s="10">
+        <v>50</v>
+      </c>
+      <c r="T100" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="10">
+        <v>2</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="10">
+        <v>65</v>
+      </c>
+      <c r="J101" s="10">
+        <v>45</v>
+      </c>
+      <c r="K101" s="10">
+        <v>45</v>
+      </c>
+      <c r="L101" s="10">
+        <v>65</v>
+      </c>
+      <c r="M101" s="10">
+        <v>40</v>
+      </c>
+      <c r="N101" s="10">
+        <v>60</v>
+      </c>
+      <c r="O101" s="10">
+        <v>60</v>
+      </c>
+      <c r="P101" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q101" s="10">
+        <v>130</v>
+      </c>
+      <c r="R101" s="10">
+        <v>142</v>
+      </c>
+      <c r="S101" s="10">
+        <v>50</v>
+      </c>
+      <c r="T101" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="10">
+        <v>2</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" s="10">
+        <v>65</v>
+      </c>
+      <c r="J102" s="10">
+        <v>45</v>
+      </c>
+      <c r="K102" s="10">
+        <v>45</v>
+      </c>
+      <c r="L102" s="10">
+        <v>65</v>
+      </c>
+      <c r="M102" s="10">
+        <v>40</v>
+      </c>
+      <c r="N102" s="10">
+        <v>60</v>
+      </c>
+      <c r="O102" s="10">
+        <v>60</v>
+      </c>
+      <c r="P102" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q102" s="10">
+        <v>130</v>
+      </c>
+      <c r="R102" s="10">
+        <v>142</v>
+      </c>
+      <c r="S102" s="10">
+        <v>50</v>
+      </c>
+      <c r="T102" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="10">
+        <v>2</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="10">
+        <v>65</v>
+      </c>
+      <c r="J103" s="10">
+        <v>45</v>
+      </c>
+      <c r="K103" s="10">
+        <v>45</v>
+      </c>
+      <c r="L103" s="10">
+        <v>65</v>
+      </c>
+      <c r="M103" s="10">
+        <v>40</v>
+      </c>
+      <c r="N103" s="10">
+        <v>60</v>
+      </c>
+      <c r="O103" s="10">
+        <v>60</v>
+      </c>
+      <c r="P103" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q103" s="10">
+        <v>130</v>
+      </c>
+      <c r="R103" s="10">
+        <v>142</v>
+      </c>
+      <c r="S103" s="10">
+        <v>50</v>
+      </c>
+      <c r="T103" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="10">
+        <v>2</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="10">
+        <v>65</v>
+      </c>
+      <c r="J104" s="10">
+        <v>45</v>
+      </c>
+      <c r="K104" s="10">
+        <v>45</v>
+      </c>
+      <c r="L104" s="10">
+        <v>65</v>
+      </c>
+      <c r="M104" s="10">
+        <v>40</v>
+      </c>
+      <c r="N104" s="10">
+        <v>60</v>
+      </c>
+      <c r="O104" s="10">
+        <v>60</v>
+      </c>
+      <c r="P104" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q104" s="10">
+        <v>130</v>
+      </c>
+      <c r="R104" s="10">
+        <v>142</v>
+      </c>
+      <c r="S104" s="10">
+        <v>50</v>
+      </c>
+      <c r="T104" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="10">
+        <v>2</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="10">
+        <v>65</v>
+      </c>
+      <c r="J105" s="10">
+        <v>45</v>
+      </c>
+      <c r="K105" s="10">
+        <v>45</v>
+      </c>
+      <c r="L105" s="10">
+        <v>65</v>
+      </c>
+      <c r="M105" s="10">
+        <v>40</v>
+      </c>
+      <c r="N105" s="10">
+        <v>60</v>
+      </c>
+      <c r="O105" s="10">
+        <v>60</v>
+      </c>
+      <c r="P105" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q105" s="10">
+        <v>130</v>
+      </c>
+      <c r="R105" s="10">
+        <v>142</v>
+      </c>
+      <c r="S105" s="10">
+        <v>50</v>
+      </c>
+      <c r="T105" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="10">
+        <v>2</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="10">
+        <v>65</v>
+      </c>
+      <c r="J106" s="10">
+        <v>45</v>
+      </c>
+      <c r="K106" s="10">
+        <v>45</v>
+      </c>
+      <c r="L106" s="10">
+        <v>65</v>
+      </c>
+      <c r="M106" s="10">
+        <v>40</v>
+      </c>
+      <c r="N106" s="10">
+        <v>60</v>
+      </c>
+      <c r="O106" s="10">
+        <v>60</v>
+      </c>
+      <c r="P106" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q106" s="10">
+        <v>130</v>
+      </c>
+      <c r="R106" s="10">
+        <v>142</v>
+      </c>
+      <c r="S106" s="10">
+        <v>50</v>
+      </c>
+      <c r="T106" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="10">
+        <v>2</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="10">
+        <v>65</v>
+      </c>
+      <c r="J107" s="10">
+        <v>45</v>
+      </c>
+      <c r="K107" s="10">
+        <v>45</v>
+      </c>
+      <c r="L107" s="10">
+        <v>65</v>
+      </c>
+      <c r="M107" s="10">
+        <v>40</v>
+      </c>
+      <c r="N107" s="10">
+        <v>60</v>
+      </c>
+      <c r="O107" s="10">
+        <v>60</v>
+      </c>
+      <c r="P107" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q107" s="10">
+        <v>130</v>
+      </c>
+      <c r="R107" s="10">
+        <v>142</v>
+      </c>
+      <c r="S107" s="10">
+        <v>50</v>
+      </c>
+      <c r="T107" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="10">
+        <v>2</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="10">
+        <v>65</v>
+      </c>
+      <c r="J108" s="10">
+        <v>45</v>
+      </c>
+      <c r="K108" s="10">
+        <v>45</v>
+      </c>
+      <c r="L108" s="10">
+        <v>65</v>
+      </c>
+      <c r="M108" s="10">
+        <v>40</v>
+      </c>
+      <c r="N108" s="10">
+        <v>60</v>
+      </c>
+      <c r="O108" s="10">
+        <v>60</v>
+      </c>
+      <c r="P108" s="10">
+        <v>60</v>
+      </c>
+      <c r="Q108" s="10">
+        <v>130</v>
+      </c>
+      <c r="R108" s="10">
+        <v>142</v>
+      </c>
+      <c r="S108" s="10">
+        <v>50</v>
+      </c>
+      <c r="T108" s="10">
         <v>40</v>
       </c>
     </row>

--- a/data/Player Statistics.xlsx
+++ b/data/Player Statistics.xlsx
@@ -466,7 +466,7 @@
     <t>Lilo</t>
   </si>
   <si>
-    <t>MJ heehee</t>
+    <t>MJ Heehee</t>
   </si>
   <si>
     <t>Angelina</t>
@@ -492,7 +492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +517,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -628,10 +634,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
